--- a/avito_reality_logos.xlsx
+++ b/avito_reality_logos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epicode/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B25AC9-C394-484F-AD49-F312B556F189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1897D87-9BB3-D440-BD41-3F6FD1352582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Новостройки" sheetId="1" r:id="rId1"/>
@@ -420,9 +420,6 @@
     <t>10.6</t>
   </si>
   <si>
-    <t>25.2</t>
-  </si>
-  <si>
     <t>5.3</t>
   </si>
   <si>
@@ -465,139 +462,142 @@
     <t>Балкон</t>
   </si>
   <si>
-    <t>https://logos.moscow/wp-content/uploads/2023/06/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2023/06/624d36e5a56e1.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2023/06/624d36f3a3d17.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2023/06/624d374e007a2.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2023/06/624d3f1f3ec14.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2023/06/624d40108ec12.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2023/06/624d40253cc54.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2023/06/624d40530a324.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2023/06/624d4068ba128.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2023/06/624d448a2c5f0.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2023/06/624d44a83777c.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2023/06/624d451d0b69e.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2023/06/624d456c0448f.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/721-1.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/05/624d45be630fb.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/05/624d466b5cc4c.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/05/624d467a729b9.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/05/624d470b3ecc5.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/05/624d4fc9237ed.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/05/624d4fd9a91fd.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/05/624d505af2d9d.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/915_skrin.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/916-2.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/624d5204434b81.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1007-3.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1016-2.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1101-2.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/624d54284cf081.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/624d5508816541.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1115.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/624d55544f2db1.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1122.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1201-2.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1203.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/624d5625cc7f71.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/624d5646b35911.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1208-2.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1210-2.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1213.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1215.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1302.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1306.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1307.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
-    <t>https://logos.moscow/wp-content/uploads/2022/02/1308.png| https://pb13845.profitbase.ru/uploads/preset/13845/624d33c6d9c78.png | https://pb13845.profitbase.ru/uploads/layout/13845/622b280991f0e.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
-  </si>
-  <si>
     <t>7 495 162-59-32</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>https://logos.moscow/wp-content/uploads/2023/06/624d374e007a2.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor4.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://logos.moscow/wp-content/uploads/2023/06/624d3f1f3ec14.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor6.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://logos.moscow/wp-content/uploads/2023/06/624d4068ba128.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor6.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://logos.moscow/wp-content/uploads/2022/02/624d54284cf081.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor11.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/319.png| https://logos.moscow/wp-content/uploads/2023/06/624d33c6d9c78.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor3.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/403.png| https://logos.moscow/wp-content/uploads/2023/06/624d36e5a56e1.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor4.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/404.png| https://logos.moscow/wp-content/uploads/2023/06/624d36f3a3d17.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor4.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/612.jpg | https://logos.moscow/wp-content/uploads/2023/06/624d40108ec12.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor6.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/613.png | https://logos.moscow/wp-content/uploads/2023/06/624d40253cc54.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor6.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/616.png | https://logos.moscow/wp-content/uploads/2023/06/624d40530a324.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor6.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/707.png | https://logos.moscow/wp-content/uploads/2023/06/624d448a2c5f0.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor7.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/709.jpeg | https://logos.moscow/wp-content/uploads/2023/06/624d44a83777c.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor7.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/715.png | https://logos.moscow/wp-content/uploads/2023/06/624d451d0b69e.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor7.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/720.png | https://logos.moscow/wp-content/uploads/2023/06/624d456c0448f.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor7.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/721.png | https://logos.moscow/wp-content/uploads/2022/02/721-1.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor7.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/724.jpeg | https://logos.moscow/wp-content/uploads/2022/05/624d45be630fb.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor7.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/806.png | https://logos.moscow/wp-content/uploads/2022/05/624d466b5cc4c.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor8.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/807.png | https://logos.moscow/wp-content/uploads/2022/05/624d467a729b9.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor8.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/814.png | https://logos.moscow/wp-content/uploads/2022/05/624d470b3ecc5.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor8.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/094.jpeg | https://logos.moscow/wp-content/uploads/2022/05/624d4fc9237ed.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor9.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/905.png | https://logos.moscow/wp-content/uploads/2022/05/624d4fd9a91fd.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor9.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/912.jpeg | https://logos.moscow/wp-content/uploads/2022/05/624d505af2d9d.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor9.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/915.png | https://logos.moscow/wp-content/uploads/2022/02/915_skrin.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor9.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/916.png | https://logos.moscow/wp-content/uploads/2022/02/916-2.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor9.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1002.jpeg | https://logos.moscow/wp-content/uploads/2022/02/624d5204434b81.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor10.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1007.jpeg | https://logos.moscow/wp-content/uploads/2022/02/1007-3.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor10.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1016.png | https://logos.moscow/wp-content/uploads/2022/02/1016-2.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor10.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1101.png | https://logos.moscow/wp-content/uploads/2022/02/1101-2.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor11.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1113.jpeg | https://logos.moscow/wp-content/uploads/2022/02/624d5508816541.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor11.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://logos.moscow/wp-content/uploads/2022/02/1115.jpeg | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor11.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1117.png | https://logos.moscow/wp-content/uploads/2022/02/624d55544f2db1.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor11.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1122.jpeg | https://logos.moscow/wp-content/uploads/2022/02/1122.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor11.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1201.png | https://logos.moscow/wp-content/uploads/2022/02/1201-2.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor12.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1203.jpg | https://logos.moscow/wp-content/uploads/2022/02/1203.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor12.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1205.jpeg | https://logos.moscow/wp-content/uploads/2022/02/624d5625cc7f71.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor12.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1207.jpeg | https://logos.moscow/wp-content/uploads/2022/02/624d5646b35911.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor12.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1208.png | https://logos.moscow/wp-content/uploads/2022/02/1208-2.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor12.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1210.png | https://logos.moscow/wp-content/uploads/2022/02/1210-2.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor12.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1213.jpeg | https://logos.moscow/wp-content/uploads/2022/02/1213.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor12.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1215.jpeg | https://logos.moscow/wp-content/uploads/2022/02/1215.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor12.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1302.jpeg | https://logos.moscow/wp-content/uploads/2022/02/1302.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor13.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1307.png | https://logos.moscow/wp-content/uploads/2022/02/1307.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor13.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1308.png | https://logos.moscow/wp-content/uploads/2022/02/1308.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor13.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/logosF/feed/main/pics/1306.png | https://logos.moscow/wp-content/uploads/2022/02/1306.png | https://raw.githubusercontent.com/logosF/feed/main/pics/common/floor13.jpg| https://pb13845.profitbase.ru/uploads/building_image/13845/62387d38555de.png | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d3e95f5b.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d4c25dc4.jpg | https://pb13845.profitbase.ru/uploads/building_image/13845/62387d522e48e.jpg</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -675,7 +675,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -993,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMF45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="H11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1005,7 +1004,7 @@
     <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="64.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.33203125" style="1" customWidth="1"/>
@@ -1014,9 +1013,10 @@
     <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="76.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="53.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" customWidth="1"/>
     <col min="20" max="20" width="10.83203125" style="1"/>
     <col min="22" max="1020" width="10.83203125" style="1"/>
   </cols>
@@ -1083,19 +1083,19 @@
         <v>110</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -1117,7 +1117,7 @@
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H2" s="2">
@@ -1148,10 +1148,10 @@
         <v>32619000</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>103</v>
@@ -1163,13 +1163,13 @@
         <v>319</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y2" s="2"/>
     </row>
@@ -1192,7 +1192,7 @@
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1223,10 +1223,10 @@
         <v>18379000</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>103</v>
@@ -1238,16 +1238,16 @@
         <v>403</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1269,7 +1269,7 @@
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1300,10 +1300,10 @@
         <v>17934000</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>103</v>
@@ -1315,13 +1315,13 @@
         <v>404</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y4" s="2"/>
     </row>
@@ -1344,7 +1344,7 @@
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H5" s="2">
@@ -1375,10 +1375,10 @@
         <v>22721000</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>103</v>
@@ -1390,13 +1390,13 @@
         <v>409</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y5" s="2"/>
     </row>
@@ -1419,7 +1419,7 @@
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1450,10 +1450,10 @@
         <v>18110000</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>105</v>
@@ -1465,13 +1465,13 @@
         <v>601</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y6" s="2"/>
     </row>
@@ -1494,7 +1494,7 @@
       <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H7" s="2">
@@ -1522,13 +1522,13 @@
         <v>107</v>
       </c>
       <c r="P7" s="3">
-        <v>21947000</v>
+        <v>22386000</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>104</v>
@@ -1540,13 +1540,13 @@
         <v>612</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y7" s="2"/>
     </row>
@@ -1569,7 +1569,7 @@
       <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1600,10 +1600,10 @@
         <v>17110000</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>104</v>
@@ -1615,13 +1615,13 @@
         <v>613</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y8" s="2"/>
     </row>
@@ -1644,7 +1644,7 @@
       <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H9" s="2">
@@ -1675,10 +1675,10 @@
         <v>37351000</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>103</v>
@@ -1690,13 +1690,13 @@
         <v>616</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y9" s="2"/>
     </row>
@@ -1719,7 +1719,7 @@
       <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H10" s="2">
@@ -1750,10 +1750,10 @@
         <v>25135000</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>103</v>
@@ -1765,13 +1765,13 @@
         <v>617</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y10" s="2"/>
     </row>
@@ -1794,7 +1794,7 @@
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H11" s="2">
@@ -1825,10 +1825,10 @@
         <v>57464000</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>103</v>
@@ -1840,16 +1840,16 @@
         <v>707</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1871,7 +1871,7 @@
       <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -1902,10 +1902,10 @@
         <v>21430000</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>103</v>
@@ -1917,13 +1917,13 @@
         <v>709</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y12" s="2"/>
     </row>
@@ -1946,7 +1946,7 @@
       <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H13" s="2">
@@ -1977,10 +1977,10 @@
         <v>35125000</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>105</v>
@@ -1992,13 +1992,13 @@
         <v>715</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y13" s="2"/>
     </row>
@@ -2021,7 +2021,7 @@
       <c r="F14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H14" s="2">
@@ -2052,10 +2052,10 @@
         <v>43353000</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>103</v>
@@ -2067,16 +2067,16 @@
         <v>720</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2098,7 +2098,7 @@
       <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -2129,10 +2129,10 @@
         <v>18440000</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>103</v>
@@ -2144,16 +2144,16 @@
         <v>721</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2175,7 +2175,7 @@
       <c r="F16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -2206,10 +2206,10 @@
         <v>15339000</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="S16" s="5" t="s">
         <v>105</v>
@@ -2221,13 +2221,13 @@
         <v>724</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y16" s="2"/>
     </row>
@@ -2250,7 +2250,7 @@
       <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -2281,10 +2281,10 @@
         <v>18050000</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>103</v>
@@ -2296,13 +2296,13 @@
         <v>806</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y17" s="2"/>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="F18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -2356,10 +2356,10 @@
         <v>16279000</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>103</v>
@@ -2371,16 +2371,16 @@
         <v>807</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2402,7 +2402,7 @@
       <c r="F19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -2433,10 +2433,10 @@
         <v>17453000</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>104</v>
@@ -2448,13 +2448,13 @@
         <v>814</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y19" s="2"/>
     </row>
@@ -2477,7 +2477,7 @@
       <c r="F20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -2508,10 +2508,10 @@
         <v>20050000</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>103</v>
@@ -2523,16 +2523,16 @@
         <v>904</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2554,7 +2554,7 @@
       <c r="F21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -2585,10 +2585,10 @@
         <v>18819000</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>103</v>
@@ -2600,13 +2600,13 @@
         <v>905</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y21" s="2"/>
     </row>
@@ -2629,7 +2629,7 @@
       <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H22" s="2">
@@ -2660,10 +2660,10 @@
         <v>34823000</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="S22" s="5" t="s">
         <v>105</v>
@@ -2675,13 +2675,13 @@
         <v>912</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y22" s="2"/>
     </row>
@@ -2704,7 +2704,7 @@
       <c r="F23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H23" s="2">
@@ -2732,13 +2732,13 @@
         <v>107</v>
       </c>
       <c r="P23" s="3">
-        <v>24582000</v>
+        <v>25073000</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>104</v>
@@ -2750,13 +2750,13 @@
         <v>915</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y23" s="2"/>
     </row>
@@ -2779,7 +2779,7 @@
       <c r="F24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H24" s="2">
@@ -2810,10 +2810,10 @@
         <v>53602000</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S24" s="5" t="s">
         <v>105</v>
@@ -2825,13 +2825,13 @@
         <v>916</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y24" s="2"/>
     </row>
@@ -2854,7 +2854,7 @@
       <c r="F25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -2885,10 +2885,10 @@
         <v>18322000</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>105</v>
@@ -2900,13 +2900,13 @@
         <v>1002</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y25" s="2"/>
     </row>
@@ -2929,7 +2929,7 @@
       <c r="F26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H26" s="2">
@@ -2960,10 +2960,10 @@
         <v>48697000</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>103</v>
@@ -2975,13 +2975,13 @@
         <v>1007</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y26" s="2"/>
     </row>
@@ -3004,7 +3004,7 @@
       <c r="F27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H27" s="2">
@@ -3035,10 +3035,10 @@
         <v>36754000</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>103</v>
@@ -3050,13 +3050,13 @@
         <v>1016</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y27" s="2"/>
     </row>
@@ -3079,7 +3079,7 @@
       <c r="F28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -3110,10 +3110,10 @@
         <v>19044000</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S28" s="5" t="s">
         <v>105</v>
@@ -3125,13 +3125,13 @@
         <v>1101</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y28" s="2"/>
     </row>
@@ -3154,7 +3154,7 @@
       <c r="F29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -3185,10 +3185,10 @@
         <v>18298000</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>103</v>
@@ -3200,13 +3200,13 @@
         <v>1103</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y29" s="2"/>
     </row>
@@ -3229,7 +3229,7 @@
       <c r="F30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -3260,10 +3260,10 @@
         <v>17967000</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>104</v>
@@ -3275,13 +3275,13 @@
         <v>1113</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y30" s="2"/>
     </row>
@@ -3304,7 +3304,7 @@
       <c r="F31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H31" s="2">
@@ -3335,10 +3335,10 @@
         <v>55610000</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="S31" s="5" t="s">
         <v>105</v>
@@ -3350,13 +3350,13 @@
         <v>1115</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y31" s="2"/>
     </row>
@@ -3379,7 +3379,7 @@
       <c r="F32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H32" s="2">
@@ -3410,10 +3410,10 @@
         <v>37481000</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>103</v>
@@ -3425,13 +3425,13 @@
         <v>1117</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y32" s="2"/>
     </row>
@@ -3454,7 +3454,7 @@
       <c r="F33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -3485,10 +3485,10 @@
         <v>15938000</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S33" s="5" t="s">
         <v>105</v>
@@ -3500,13 +3500,13 @@
         <v>1122</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y33" s="2"/>
     </row>
@@ -3529,7 +3529,7 @@
       <c r="F34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H34" s="2">
@@ -3560,28 +3560,28 @@
         <v>46153000</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S34" s="5" t="s">
         <v>105</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="U34" s="2">
         <v>1201</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y34" s="2"/>
     </row>
@@ -3604,7 +3604,7 @@
       <c r="F35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H35" s="2">
@@ -3635,31 +3635,31 @@
         <v>40756000</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>103</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U35" s="2">
         <v>1203</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3681,7 +3681,7 @@
       <c r="F36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H36" s="2">
@@ -3712,28 +3712,28 @@
         <v>37490000</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>103</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U36" s="2">
         <v>1205</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y36" s="2"/>
     </row>
@@ -3756,7 +3756,7 @@
       <c r="F37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H37" s="2">
@@ -3787,10 +3787,10 @@
         <v>38841000</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S37" s="5" t="s">
         <v>105</v>
@@ -3802,13 +3802,13 @@
         <v>1207</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y37" s="2"/>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="F38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H38" s="2">
@@ -3859,13 +3859,13 @@
         <v>107</v>
       </c>
       <c r="P38" s="3">
-        <v>23698000</v>
+        <v>24171000</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>104</v>
@@ -3877,13 +3877,13 @@
         <v>1208</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y38" s="2"/>
     </row>
@@ -3906,7 +3906,7 @@
       <c r="F39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H39" s="2">
@@ -3934,13 +3934,13 @@
         <v>107</v>
       </c>
       <c r="P39" s="3">
-        <v>25722000</v>
+        <v>26236000</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>104</v>
@@ -3952,13 +3952,13 @@
         <v>1210</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y39" s="2"/>
     </row>
@@ -3981,7 +3981,7 @@
       <c r="F40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H40" s="2">
@@ -4012,28 +4012,28 @@
         <v>50691000</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>103</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U40" s="2">
         <v>1213</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y40" s="2"/>
     </row>
@@ -4056,7 +4056,7 @@
       <c r="F41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H41" s="2">
@@ -4087,31 +4087,31 @@
         <v>42640000</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S41" s="2" t="s">
         <v>103</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U41" s="2">
         <v>1215</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -4133,7 +4133,7 @@
       <c r="F42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H42" s="2">
@@ -4164,31 +4164,31 @@
         <v>43095000</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S42" s="2" t="s">
         <v>103</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U42" s="2">
         <v>1302</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -4210,7 +4210,7 @@
       <c r="F43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H43" s="2">
@@ -4241,28 +4241,28 @@
         <v>94660000</v>
       </c>
       <c r="Q43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R43" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="R43" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="S43" s="5" t="s">
         <v>105</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U43" s="2">
         <v>1306</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y43" s="2"/>
     </row>
@@ -4285,7 +4285,7 @@
       <c r="F44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H44" s="2">
@@ -4316,7 +4316,7 @@
         <v>81221000</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R44" s="7" t="s">
         <v>183</v>
@@ -4331,13 +4331,13 @@
         <v>1307</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y44" s="2"/>
     </row>
@@ -4360,7 +4360,7 @@
       <c r="F45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H45" s="2">
@@ -4391,7 +4391,7 @@
         <v>63344000</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>184</v>
@@ -4400,19 +4400,19 @@
         <v>103</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U45" s="2">
         <v>1308</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y45" s="2"/>
     </row>

--- a/avito_reality_logos.xlsx
+++ b/avito_reality_logos.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epicode/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1897D87-9BB3-D440-BD41-3F6FD1352582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88B13120-A0D6-FB49-92F1-433B480A5296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Новостройки" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Новостройки!$A$1:$Y$45</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -990,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMF45"/>
+  <dimension ref="A1:ALU45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1014,11 +1017,11 @@
     <col min="14" max="14" width="13.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="53.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="1"/>
-    <col min="22" max="1020" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="15.5" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="53.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="1009" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -1159,7 +1162,7 @@
       <c r="T2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="4">
         <v>319</v>
       </c>
       <c r="V2" s="1" t="s">
@@ -1220,7 +1223,7 @@
         <v>107</v>
       </c>
       <c r="P3" s="3">
-        <v>18379000</v>
+        <v>18930664.059999999</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>140</v>
@@ -1234,7 +1237,7 @@
       <c r="T3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="4">
         <v>403</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -1297,7 +1300,7 @@
         <v>107</v>
       </c>
       <c r="P4" s="3">
-        <v>17934000</v>
+        <v>18471738.870000001</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>140</v>
@@ -1311,7 +1314,7 @@
       <c r="T4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="4">
         <v>404</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -1386,7 +1389,7 @@
       <c r="T5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="4">
         <v>409</v>
       </c>
       <c r="V5" s="1" t="s">
@@ -1461,7 +1464,7 @@
       <c r="T6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="4">
         <v>601</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -1536,7 +1539,7 @@
       <c r="T7" s="4">
         <v>3</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="4">
         <v>612</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -1597,7 +1600,7 @@
         <v>107</v>
       </c>
       <c r="P8" s="3">
-        <v>17110000</v>
+        <v>17622840.5</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>140</v>
@@ -1611,7 +1614,7 @@
       <c r="T8" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="4">
         <v>613</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -1672,7 +1675,7 @@
         <v>107</v>
       </c>
       <c r="P9" s="3">
-        <v>37351000</v>
+        <v>38471196.899999999</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>140</v>
@@ -1686,7 +1689,7 @@
       <c r="T9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="4">
         <v>616</v>
       </c>
       <c r="V9" s="1" t="s">
@@ -1761,7 +1764,7 @@
       <c r="T10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="4">
         <v>617</v>
       </c>
       <c r="V10" s="1" t="s">
@@ -1822,7 +1825,7 @@
         <v>107</v>
       </c>
       <c r="P11" s="3">
-        <v>57464000</v>
+        <v>59187414.07</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>140</v>
@@ -1836,7 +1839,7 @@
       <c r="T11" s="4">
         <v>8</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="4">
         <v>707</v>
       </c>
       <c r="V11" s="1" t="s">
@@ -1913,7 +1916,7 @@
       <c r="T12" s="4">
         <v>4</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="4">
         <v>709</v>
       </c>
       <c r="V12" s="1" t="s">
@@ -1974,7 +1977,7 @@
         <v>107</v>
       </c>
       <c r="P13" s="3">
-        <v>35125000</v>
+        <v>36178310.890000001</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>140</v>
@@ -1988,7 +1991,7 @@
       <c r="T13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="4">
         <v>715</v>
       </c>
       <c r="V13" s="1" t="s">
@@ -2049,7 +2052,7 @@
         <v>107</v>
       </c>
       <c r="P14" s="3">
-        <v>43353000</v>
+        <v>44653395.189999998</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>140</v>
@@ -2063,7 +2066,7 @@
       <c r="T14" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="4">
         <v>720</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -2126,7 +2129,7 @@
         <v>107</v>
       </c>
       <c r="P15" s="3">
-        <v>18440000</v>
+        <v>18993690.800000001</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>140</v>
@@ -2140,7 +2143,7 @@
       <c r="T15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="4">
         <v>721</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -2203,7 +2206,7 @@
         <v>107</v>
       </c>
       <c r="P16" s="3">
-        <v>15339000</v>
+        <v>15798686.34</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>140</v>
@@ -2217,7 +2220,7 @@
       <c r="T16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="4">
         <v>724</v>
       </c>
       <c r="V16" s="1" t="s">
@@ -2278,7 +2281,7 @@
         <v>107</v>
       </c>
       <c r="P17" s="3">
-        <v>18050000</v>
+        <v>18591904.809999999</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>140</v>
@@ -2292,7 +2295,7 @@
       <c r="T17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="4">
         <v>806</v>
       </c>
       <c r="V17" s="1" t="s">
@@ -2353,7 +2356,7 @@
         <v>107</v>
       </c>
       <c r="P18" s="3">
-        <v>16279000</v>
+        <v>16767224.300000001</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>140</v>
@@ -2367,7 +2370,7 @@
       <c r="T18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="4">
         <v>807</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -2430,7 +2433,7 @@
         <v>107</v>
       </c>
       <c r="P19" s="3">
-        <v>17453000</v>
+        <v>17976092.120000001</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>140</v>
@@ -2444,7 +2447,7 @@
       <c r="T19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="4">
         <v>814</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -2505,7 +2508,7 @@
         <v>107</v>
       </c>
       <c r="P20" s="3">
-        <v>20050000</v>
+        <v>20651633.52</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>140</v>
@@ -2519,7 +2522,7 @@
       <c r="T20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="4">
         <v>904</v>
       </c>
       <c r="V20" s="1" t="s">
@@ -2582,7 +2585,7 @@
         <v>107</v>
       </c>
       <c r="P21" s="3">
-        <v>18819000</v>
+        <v>19383550.760000002</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>140</v>
@@ -2596,7 +2599,7 @@
       <c r="T21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21" s="4">
         <v>905</v>
       </c>
       <c r="V21" s="1" t="s">
@@ -2671,7 +2674,7 @@
       <c r="T22" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22" s="4">
         <v>912</v>
       </c>
       <c r="V22" s="1" t="s">
@@ -2746,7 +2749,7 @@
       <c r="T23" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U23" s="4">
         <v>915</v>
       </c>
       <c r="V23" s="1" t="s">
@@ -2807,7 +2810,7 @@
         <v>107</v>
       </c>
       <c r="P24" s="3">
-        <v>53602000</v>
+        <v>55209558.759999998</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>140</v>
@@ -2821,7 +2824,7 @@
       <c r="T24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="U24" s="2">
+      <c r="U24" s="4">
         <v>916</v>
       </c>
       <c r="V24" s="1" t="s">
@@ -2882,7 +2885,7 @@
         <v>107</v>
       </c>
       <c r="P25" s="3">
-        <v>18322000</v>
+        <v>18871632.02</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>140</v>
@@ -2896,7 +2899,7 @@
       <c r="T25" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25" s="4">
         <v>1002</v>
       </c>
       <c r="V25" s="1" t="s">
@@ -2957,7 +2960,7 @@
         <v>107</v>
       </c>
       <c r="P26" s="3">
-        <v>48697000</v>
+        <v>50157689.619999997</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>140</v>
@@ -2971,7 +2974,7 @@
       <c r="T26" s="4">
         <v>8</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U26" s="4">
         <v>1007</v>
       </c>
       <c r="V26" s="1" t="s">
@@ -3032,7 +3035,7 @@
         <v>107</v>
       </c>
       <c r="P27" s="3">
-        <v>36754000</v>
+        <v>37856416.049999997</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>140</v>
@@ -3046,7 +3049,7 @@
       <c r="T27" s="4">
         <v>5</v>
       </c>
-      <c r="U27" s="2">
+      <c r="U27" s="4">
         <v>1016</v>
       </c>
       <c r="V27" s="1" t="s">
@@ -3121,7 +3124,7 @@
       <c r="T28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="U28" s="2">
+      <c r="U28" s="4">
         <v>1101</v>
       </c>
       <c r="V28" s="1" t="s">
@@ -3182,7 +3185,7 @@
         <v>107</v>
       </c>
       <c r="P29" s="3">
-        <v>18298000</v>
+        <v>18847332.91</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>140</v>
@@ -3196,7 +3199,7 @@
       <c r="T29" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="U29" s="2">
+      <c r="U29" s="4">
         <v>1103</v>
       </c>
       <c r="V29" s="1" t="s">
@@ -3257,7 +3260,7 @@
         <v>107</v>
       </c>
       <c r="P30" s="3">
-        <v>17967000</v>
+        <v>18505969.559999999</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>140</v>
@@ -3271,7 +3274,7 @@
       <c r="T30" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="U30" s="2">
+      <c r="U30" s="4">
         <v>1113</v>
       </c>
       <c r="V30" s="1" t="s">
@@ -3332,7 +3335,7 @@
         <v>107</v>
       </c>
       <c r="P31" s="3">
-        <v>55610000</v>
+        <v>57278162.590000004</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>140</v>
@@ -3346,7 +3349,7 @@
       <c r="T31" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="U31" s="2">
+      <c r="U31" s="4">
         <v>1115</v>
       </c>
       <c r="V31" s="1" t="s">
@@ -3407,7 +3410,7 @@
         <v>107</v>
       </c>
       <c r="P32" s="3">
-        <v>37481000</v>
+        <v>38605873.859999999</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>140</v>
@@ -3421,7 +3424,7 @@
       <c r="T32" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="U32" s="2">
+      <c r="U32" s="4">
         <v>1117</v>
       </c>
       <c r="V32" s="1" t="s">
@@ -3482,7 +3485,7 @@
         <v>107</v>
       </c>
       <c r="P33" s="3">
-        <v>15938000</v>
+        <v>16416350.310000001</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>140</v>
@@ -3496,7 +3499,7 @@
       <c r="T33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="U33" s="2">
+      <c r="U33" s="4">
         <v>1122</v>
       </c>
       <c r="V33" s="1" t="s">
@@ -3557,7 +3560,7 @@
         <v>107</v>
       </c>
       <c r="P34" s="3">
-        <v>46153000</v>
+        <v>47537958.490000002</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>140</v>
@@ -3571,7 +3574,7 @@
       <c r="T34" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="U34" s="2">
+      <c r="U34" s="4">
         <v>1201</v>
       </c>
       <c r="V34" s="1" t="s">
@@ -3646,7 +3649,7 @@
       <c r="T35" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="U35" s="2">
+      <c r="U35" s="4">
         <v>1203</v>
       </c>
       <c r="V35" s="1" t="s">
@@ -3723,7 +3726,7 @@
       <c r="T36" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="U36" s="2">
+      <c r="U36" s="4">
         <v>1205</v>
       </c>
       <c r="V36" s="1" t="s">
@@ -3784,7 +3787,7 @@
         <v>107</v>
       </c>
       <c r="P37" s="3">
-        <v>38841000</v>
+        <v>40006714.899999999</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>140</v>
@@ -3798,7 +3801,7 @@
       <c r="T37" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="U37" s="2">
+      <c r="U37" s="4">
         <v>1207</v>
       </c>
       <c r="V37" s="1" t="s">
@@ -3859,7 +3862,7 @@
         <v>107</v>
       </c>
       <c r="P38" s="3">
-        <v>24171000</v>
+        <v>24896634.920000002</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>140</v>
@@ -3873,7 +3876,7 @@
       <c r="T38" s="4">
         <v>3</v>
       </c>
-      <c r="U38" s="2">
+      <c r="U38" s="4">
         <v>1208</v>
       </c>
       <c r="V38" s="1" t="s">
@@ -3934,7 +3937,7 @@
         <v>107</v>
       </c>
       <c r="P39" s="3">
-        <v>26236000</v>
+        <v>27023483.129999999</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>140</v>
@@ -3948,7 +3951,7 @@
       <c r="T39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="U39" s="2">
+      <c r="U39" s="4">
         <v>1210</v>
       </c>
       <c r="V39" s="1" t="s">
@@ -4009,7 +4012,7 @@
         <v>107</v>
       </c>
       <c r="P40" s="3">
-        <v>50691000</v>
+        <v>52212227.689999998</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>140</v>
@@ -4023,7 +4026,7 @@
       <c r="T40" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="U40" s="2">
+      <c r="U40" s="4">
         <v>1213</v>
       </c>
       <c r="V40" s="1" t="s">
@@ -4084,7 +4087,7 @@
         <v>107</v>
       </c>
       <c r="P41" s="3">
-        <v>42640000</v>
+        <v>43918884.950000003</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>140</v>
@@ -4098,7 +4101,7 @@
       <c r="T41" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="U41" s="2">
+      <c r="U41" s="4">
         <v>1215</v>
       </c>
       <c r="V41" s="1" t="s">
@@ -4161,7 +4164,7 @@
         <v>107</v>
       </c>
       <c r="P42" s="3">
-        <v>43095000</v>
+        <v>44388325.439999998</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>140</v>
@@ -4175,7 +4178,7 @@
       <c r="T42" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="U42" s="2">
+      <c r="U42" s="4">
         <v>1302</v>
       </c>
       <c r="V42" s="1" t="s">
@@ -4238,7 +4241,7 @@
         <v>107</v>
       </c>
       <c r="P43" s="3">
-        <v>94660000</v>
+        <v>97499427.980000004</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>140</v>
@@ -4252,7 +4255,7 @@
       <c r="T43" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U43" s="2">
+      <c r="U43" s="4">
         <v>1306</v>
       </c>
       <c r="V43" s="1" t="s">
@@ -4313,7 +4316,7 @@
         <v>107</v>
       </c>
       <c r="P44" s="3">
-        <v>81221000</v>
+        <v>83657970.599999994</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>140</v>
@@ -4327,7 +4330,7 @@
       <c r="T44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="U44" s="2">
+      <c r="U44" s="4">
         <v>1307</v>
       </c>
       <c r="V44" s="1" t="s">
@@ -4388,7 +4391,7 @@
         <v>107</v>
       </c>
       <c r="P45" s="3">
-        <v>63344000</v>
+        <v>65243854.039999999</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>140</v>
@@ -4402,7 +4405,7 @@
       <c r="T45" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="U45" s="2">
+      <c r="U45" s="4">
         <v>1308</v>
       </c>
       <c r="V45" s="1" t="s">
